--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\temp\Mַ_and_T Feeder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\temp\Mַ_and_T Feeder\MT_Feeder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3446533-EC37-48B5-A175-6267B4D55905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203F1715-FA13-444A-9204-A3F03E8E8F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -57,9 +57,6 @@
     <t>LCD Boot</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Enter</t>
   </si>
   <si>
@@ -99,10 +96,10 @@
     <t>fix date</t>
   </si>
   <si>
-    <t>02.01.21</t>
-  </si>
-  <si>
     <t>Long press on ENT ( delay )</t>
+  </si>
+  <si>
+    <t>update the alarm clock in "feed_now" function</t>
   </si>
 </sst>
 </file>
@@ -192,10 +189,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -480,21 +477,21 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -511,13 +508,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44041</v>
       </c>
@@ -531,16 +528,16 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="F2" s="9">
+        <v>44198</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44041</v>
       </c>
@@ -548,88 +545,93 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7">
+        <v>44210</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44041</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="8">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7">
         <v>44041</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44044</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>44044</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44047</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="9"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
